--- a/scalpel/typeinfer/evaluation/evaluation_outputs/openai__gym.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/openai__gym.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2595,9 +2595,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F67" s="4" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F67" s="3" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -2659,9 +2659,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F69" s="4" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F69" s="3" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -2723,9 +2723,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F71" s="4" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F71" s="3" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -2787,9 +2787,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F73" s="4" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F73" s="3" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -2851,9 +2851,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F75" s="4" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F75" s="3" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -2915,9 +2915,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F77" s="4" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F77" s="3" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -3107,9 +3107,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F83" s="4" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F83" s="3" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -3363,9 +3363,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F91" s="4" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F91" s="3" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -3555,9 +3555,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F97" s="4" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F97" s="3" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -3619,9 +3619,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F99" s="4" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F99" s="3" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -4448,21 +4448,35 @@
         </is>
       </c>
       <c r="F125" s="2" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr"/>
       <c r="B126" s="2" t="inlineStr"/>
-      <c r="C126" s="2" t="inlineStr"/>
-      <c r="D126" s="2" t="inlineStr"/>
-      <c r="E126" s="2" t="inlineStr">
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>Scalpel Accuracy:</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>1018.18</v>
+      </c>
+      <c r="E126" s="2" t="inlineStr"/>
+      <c r="F126" s="2" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr"/>
+      <c r="B127" s="2" t="inlineStr"/>
+      <c r="C127" s="2" t="inlineStr"/>
+      <c r="D127" s="2" t="inlineStr"/>
+      <c r="E127" s="2" t="inlineStr">
         <is>
           <t>Accuracy over PyType</t>
         </is>
       </c>
-      <c r="F126" s="2" t="n">
-        <v>127.27</v>
+      <c r="F127" s="2" t="n">
+        <v>218.18</v>
       </c>
     </row>
   </sheetData>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/openai__gym.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/openai__gym.xlsx
@@ -3680,7 +3680,7 @@
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'List[any]'}</t>
+          <t>{'List[any]', 'empty'}</t>
         </is>
       </c>
       <c r="F101" s="4" t="inlineStr">
@@ -3712,12 +3712,12 @@
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F102" s="5" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>List[any]</t>
+        </is>
+      </c>
+      <c r="F102" s="4" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -4440,7 +4440,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
@@ -4454,16 +4454,16 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr"/>
       <c r="B126" s="2" t="inlineStr"/>
-      <c r="C126" s="2" t="inlineStr">
+      <c r="C126" s="2" t="inlineStr"/>
+      <c r="D126" s="2" t="inlineStr"/>
+      <c r="E126" s="2" t="inlineStr">
         <is>
           <t>Scalpel Accuracy:</t>
         </is>
       </c>
-      <c r="D126" s="2" t="n">
-        <v>1018.18</v>
-      </c>
-      <c r="E126" s="2" t="inlineStr"/>
-      <c r="F126" s="2" t="inlineStr"/>
+      <c r="F126" s="2" t="n">
+        <v>91.86999999999999</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr"/>
@@ -4472,11 +4472,11 @@
       <c r="D127" s="2" t="inlineStr"/>
       <c r="E127" s="2" t="inlineStr">
         <is>
-          <t>Accuracy over PyType</t>
+          <t>Accuracy vs PyType</t>
         </is>
       </c>
       <c r="F127" s="2" t="n">
-        <v>218.18</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
